--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-21.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>League</t>
   </si>
@@ -233,15 +233,6 @@
   </si>
   <si>
     <t>Delfin</t>
-  </si>
-  <si>
-    <t>33117175</t>
-  </si>
-  <si>
-    <t>1.226290471</t>
-  </si>
-  <si>
-    <t>1.226290516</t>
   </si>
 </sst>
 </file>
@@ -819,34 +810,34 @@
         <v>71</v>
       </c>
       <c r="F2">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="G2">
-        <v>5.8</v>
+        <v>480</v>
       </c>
       <c r="H2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="I2">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="J2">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2">
         <v>3.8</v>
       </c>
       <c r="L2">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="M2">
         <v>1.97</v>
       </c>
       <c r="N2">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="O2">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1037,10 +1028,10 @@
         <v>1.75</v>
       </c>
       <c r="M3">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="N3">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="O3">
         <v>2.34</v>
@@ -1171,8 +1162,8 @@
       <c r="BE3">
         <v>0</v>
       </c>
-      <c r="BF3" t="s">
-        <v>73</v>
+      <c r="BF3">
+        <v>33117175</v>
       </c>
       <c r="BG3">
         <v>328197</v>
@@ -1183,11 +1174,11 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>75</v>
+      <c r="BJ3">
+        <v>1.226290471</v>
+      </c>
+      <c r="BK3">
+        <v>1.226290516</v>
       </c>
       <c r="BL3">
         <v>0</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-21.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-21.xlsx
@@ -810,160 +810,160 @@
         <v>71</v>
       </c>
       <c r="F2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>480</v>
+        <v>4.6</v>
       </c>
       <c r="H2">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="I2">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="J2">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K2">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L2">
         <v>1.73</v>
       </c>
       <c r="M2">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="N2">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="O2">
         <v>2.38</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF2">
         <v>33117177</v>
@@ -1007,160 +1007,160 @@
         <v>72</v>
       </c>
       <c r="F3">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="G3">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="H3">
-        <v>2.06</v>
+        <v>4.8</v>
       </c>
       <c r="I3">
-        <v>870</v>
+        <v>7.4</v>
       </c>
       <c r="J3">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="K3">
-        <v>330</v>
+        <v>4.9</v>
       </c>
       <c r="L3">
         <v>1.75</v>
       </c>
       <c r="M3">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF3">
         <v>33117175</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-21.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>League</t>
   </si>
@@ -217,22 +217,28 @@
     <t>2024-03-21</t>
   </si>
   <si>
-    <t>18:30:00</t>
-  </si>
-  <si>
     <t>21:00:00</t>
   </si>
   <si>
-    <t>Tecnico Universitario</t>
-  </si>
-  <si>
     <t>Emelec</t>
   </si>
   <si>
-    <t>Independiente (Ecu)</t>
-  </si>
-  <si>
     <t>Delfin</t>
+  </si>
+  <si>
+    <t>33117175</t>
+  </si>
+  <si>
+    <t>1.226290471</t>
+  </si>
+  <si>
+    <t>1.226290516</t>
+  </si>
+  <si>
+    <t>1.226290555</t>
+  </si>
+  <si>
+    <t>1.226290480</t>
   </si>
 </sst>
 </file>
@@ -590,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM3"/>
+  <dimension ref="A1:BM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,387 +810,190 @@
         <v>67</v>
       </c>
       <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
       <c r="F2">
-        <v>4</v>
+        <v>1.74</v>
       </c>
       <c r="G2">
-        <v>4.6</v>
+        <v>1.84</v>
       </c>
       <c r="H2">
-        <v>1.95</v>
+        <v>5.2</v>
       </c>
       <c r="I2">
-        <v>2.14</v>
+        <v>5.9</v>
       </c>
       <c r="J2">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K2">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="L2">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="M2">
         <v>1.95</v>
       </c>
       <c r="N2">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="O2">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="P2">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="Q2">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R2">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S2">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="T2">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="U2">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="V2">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="W2">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="X2">
-        <v>9.6</v>
+        <v>30</v>
       </c>
       <c r="Y2">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="Z2">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="AA2">
         <v>980</v>
       </c>
       <c r="AB2">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="AC2">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD2">
+        <v>7.6</v>
+      </c>
+      <c r="AE2">
+        <v>9.6</v>
+      </c>
+      <c r="AF2">
+        <v>19</v>
+      </c>
+      <c r="AG2">
+        <v>24</v>
+      </c>
+      <c r="AH2">
+        <v>5.6</v>
+      </c>
+      <c r="AI2">
+        <v>100</v>
+      </c>
+      <c r="AJ2">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK2">
+        <v>11</v>
+      </c>
+      <c r="AL2">
+        <v>8.6</v>
+      </c>
+      <c r="AM2">
+        <v>11.5</v>
+      </c>
+      <c r="AN2">
+        <v>19</v>
+      </c>
+      <c r="AO2">
+        <v>28</v>
+      </c>
+      <c r="AP2">
+        <v>5.3</v>
+      </c>
+      <c r="AQ2">
+        <v>110</v>
+      </c>
+      <c r="AR2">
+        <v>14.5</v>
+      </c>
+      <c r="AS2">
+        <v>23</v>
+      </c>
+      <c r="AT2">
+        <v>16.5</v>
+      </c>
+      <c r="AU2">
+        <v>25</v>
+      </c>
+      <c r="AV2">
+        <v>30</v>
+      </c>
+      <c r="AW2">
+        <v>50</v>
+      </c>
+      <c r="AX2">
+        <v>5.4</v>
+      </c>
+      <c r="AY2">
         <v>980</v>
       </c>
-      <c r="AD2">
-        <v>6.6</v>
-      </c>
-      <c r="AE2">
-        <v>9</v>
-      </c>
-      <c r="AF2">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG2">
-        <v>980</v>
-      </c>
-      <c r="AH2">
-        <v>3.75</v>
-      </c>
-      <c r="AI2">
-        <v>980</v>
-      </c>
-      <c r="AJ2">
-        <v>2.76</v>
-      </c>
-      <c r="AK2">
-        <v>1000</v>
-      </c>
-      <c r="AL2">
-        <v>5.1</v>
-      </c>
-      <c r="AM2">
-        <v>980</v>
-      </c>
-      <c r="AN2">
-        <v>4.6</v>
-      </c>
-      <c r="AO2">
-        <v>980</v>
-      </c>
-      <c r="AP2">
-        <v>2.16</v>
-      </c>
-      <c r="AQ2">
-        <v>980</v>
-      </c>
-      <c r="AR2">
-        <v>1.92</v>
-      </c>
-      <c r="AS2">
-        <v>1000</v>
-      </c>
-      <c r="AT2">
-        <v>1.92</v>
-      </c>
-      <c r="AU2">
-        <v>1000</v>
-      </c>
-      <c r="AV2">
-        <v>6.4</v>
-      </c>
-      <c r="AW2">
-        <v>1000</v>
-      </c>
-      <c r="AX2">
-        <v>1.92</v>
-      </c>
-      <c r="AY2">
-        <v>1000</v>
-      </c>
       <c r="AZ2">
-        <v>1.88</v>
+        <v>4</v>
       </c>
       <c r="BA2">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="BB2">
-        <v>1.75</v>
+        <v>5.3</v>
       </c>
       <c r="BC2">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="BD2">
-        <v>1.92</v>
+        <v>5.5</v>
       </c>
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2">
-        <v>33117177</v>
+      <c r="BF2" t="s">
+        <v>70</v>
       </c>
       <c r="BG2">
-        <v>6290900</v>
+        <v>328197</v>
       </c>
       <c r="BH2">
-        <v>6432339</v>
+        <v>10778437</v>
       </c>
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2">
-        <v>1.226290381</v>
-      </c>
-      <c r="BK2">
-        <v>1.226290426</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="BJ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK2" t="s">
         <v>72</v>
       </c>
-      <c r="F3">
-        <v>1.62</v>
-      </c>
-      <c r="G3">
-        <v>1.83</v>
-      </c>
-      <c r="H3">
-        <v>4.8</v>
-      </c>
-      <c r="I3">
-        <v>7.4</v>
-      </c>
-      <c r="J3">
-        <v>3.5</v>
-      </c>
-      <c r="K3">
-        <v>4.9</v>
-      </c>
-      <c r="L3">
-        <v>1.75</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>2.32</v>
-      </c>
-      <c r="P3">
-        <v>1.92</v>
-      </c>
-      <c r="Q3">
-        <v>2.3</v>
-      </c>
-      <c r="R3">
-        <v>1.78</v>
-      </c>
-      <c r="S3">
-        <v>2.08</v>
-      </c>
-      <c r="T3">
-        <v>3.4</v>
-      </c>
-      <c r="U3">
-        <v>980</v>
-      </c>
-      <c r="V3">
-        <v>3.65</v>
-      </c>
-      <c r="W3">
-        <v>980</v>
-      </c>
-      <c r="X3">
-        <v>4</v>
-      </c>
-      <c r="Y3">
-        <v>1000</v>
-      </c>
-      <c r="Z3">
-        <v>5</v>
-      </c>
-      <c r="AA3">
-        <v>1000</v>
-      </c>
-      <c r="AB3">
-        <v>3</v>
-      </c>
-      <c r="AC3">
-        <v>980</v>
-      </c>
-      <c r="AD3">
-        <v>3.15</v>
-      </c>
-      <c r="AE3">
-        <v>980</v>
-      </c>
-      <c r="AF3">
-        <v>3.8</v>
-      </c>
-      <c r="AG3">
-        <v>980</v>
-      </c>
-      <c r="AH3">
-        <v>4.2</v>
-      </c>
-      <c r="AI3">
-        <v>1000</v>
-      </c>
-      <c r="AJ3">
-        <v>3.15</v>
-      </c>
-      <c r="AK3">
-        <v>980</v>
-      </c>
-      <c r="AL3">
-        <v>3.25</v>
-      </c>
-      <c r="AM3">
-        <v>980</v>
-      </c>
-      <c r="AN3">
-        <v>3.8</v>
-      </c>
-      <c r="AO3">
-        <v>980</v>
-      </c>
-      <c r="AP3">
-        <v>4.2</v>
-      </c>
-      <c r="AQ3">
-        <v>1000</v>
-      </c>
-      <c r="AR3">
-        <v>3.65</v>
-      </c>
-      <c r="AS3">
-        <v>980</v>
-      </c>
-      <c r="AT3">
-        <v>3.7</v>
-      </c>
-      <c r="AU3">
-        <v>980</v>
-      </c>
-      <c r="AV3">
-        <v>4</v>
-      </c>
-      <c r="AW3">
-        <v>1000</v>
-      </c>
-      <c r="AX3">
-        <v>4.3</v>
-      </c>
-      <c r="AY3">
-        <v>1000</v>
-      </c>
-      <c r="AZ3">
-        <v>3.35</v>
-      </c>
-      <c r="BA3">
-        <v>980</v>
-      </c>
-      <c r="BB3">
-        <v>1.99</v>
-      </c>
-      <c r="BC3">
-        <v>1000</v>
-      </c>
-      <c r="BD3">
-        <v>1.99</v>
-      </c>
-      <c r="BE3">
-        <v>1000</v>
-      </c>
-      <c r="BF3">
-        <v>33117175</v>
-      </c>
-      <c r="BG3">
-        <v>328197</v>
-      </c>
-      <c r="BH3">
-        <v>10778437</v>
-      </c>
-      <c r="BI3">
-        <v>58805</v>
-      </c>
-      <c r="BJ3">
-        <v>1.226290471</v>
-      </c>
-      <c r="BK3">
-        <v>1.226290516</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
+      <c r="BL2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
